--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value537.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value537.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169949876055844</v>
+        <v>2.08544659614563</v>
       </c>
       <c r="B1">
-        <v>1.26722062681682</v>
+        <v>2.581828832626343</v>
       </c>
       <c r="C1">
-        <v>1.246013668156797</v>
+        <v>2.684499025344849</v>
       </c>
       <c r="D1">
-        <v>1.539947522445534</v>
+        <v>3.169137954711914</v>
       </c>
       <c r="E1">
-        <v>2.267345601724478</v>
+        <v>0.7647852301597595</v>
       </c>
     </row>
   </sheetData>
